--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,55 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
